--- a/observr_pom/excelfiles/observr.xlsx
+++ b/observr_pom/excelfiles/observr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\padal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\padal\git\observr_pom\observr_pom\excelfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A545D0-437E-4387-B353-3A00D57C8925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C80EE-E7E4-4D21-833B-4A42C384A2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C6DD7612-D1EC-4DA2-BBCA-D485DED67538}"/>
   </bookViews>
@@ -39,13 +39,13 @@
     <t>expected title =</t>
   </si>
   <si>
-    <t>Work Execution Software for busy asset teams | Obzervr</t>
-  </si>
-  <si>
     <t>https://www.obzervr.com/</t>
   </si>
   <si>
     <t>url =</t>
+  </si>
+  <si>
+    <t>Fieldwork Automation &amp; Mobility Solutions | Obzervr</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,15 +425,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
